--- a/responsive_surface/box_behken.xlsx
+++ b/responsive_surface/box_behken.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shohei/Downloads/DesignOfExperiment/taguchi/responsive_surface/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shohei/Downloads/DesignOfExperiment/responsive_surface/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EA91A5-7A02-3A44-93C3-0EC71F2D4DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E2FA91-995F-FD48-A94D-3C7228BF959D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12140" yWindow="1480" windowWidth="22520" windowHeight="19780" xr2:uid="{5A408BAC-23F7-AF45-92B7-E6362B370D1C}"/>
+    <workbookView xWindow="19020" yWindow="1220" windowWidth="22520" windowHeight="19780" activeTab="1" xr2:uid="{5A408BAC-23F7-AF45-92B7-E6362B370D1C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="matrix" sheetId="1" r:id="rId1"/>
+    <sheet name="mask" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>a</t>
     <phoneticPr fontId="2"/>
@@ -499,13 +500,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9899AEB7-7387-6C41-A808-0F58EE6BA63D}">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="3" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="4.125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="4.125" customWidth="1"/>
     <col min="12" max="21" width="3.25" bestFit="1" customWidth="1"/>
@@ -4544,4 +4546,768 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C15F072-5D6C-4F41-8C7C-6AABCA42C487}">
+  <dimension ref="A1:V11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>